--- a/docs/Dicionário de dados.xlsx
+++ b/docs/Dicionário de dados.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JaPedidos\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7771EB6-A53D-4DA7-BA2D-0CCDCDC8D4FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71028141-471E-430E-9D55-0ECDE4F0FFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{4BC17D00-DB0A-495E-B350-C22ADAA28123}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4BC17D00-DB0A-495E-B350-C22ADAA28123}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="144">
   <si>
     <t>ENTIDADE</t>
   </si>
@@ -87,15 +87,6 @@
     <t>NOT NULL</t>
   </si>
   <si>
-    <t>Nome do cliente</t>
-  </si>
-  <si>
-    <t>Telefone do cliente</t>
-  </si>
-  <si>
-    <t>Identificador do operador que alterou o reg.</t>
-  </si>
-  <si>
     <t>Data da ultima alteração feita pelo op.</t>
   </si>
   <si>
@@ -120,29 +111,369 @@
     <t>Usuario</t>
   </si>
   <si>
-    <t>Identificador Interno do registro</t>
-  </si>
-  <si>
-    <t>Nome  completo do operador do sistema</t>
-  </si>
-  <si>
-    <t>Login  do operador do sistema</t>
-  </si>
-  <si>
-    <t>Senha  do operador do sistema</t>
-  </si>
-  <si>
-    <t>Tipo completo do operador do sistema</t>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>id_categoria</t>
+  </si>
+  <si>
+    <t>id_unidade</t>
+  </si>
+  <si>
+    <t>Coluna1</t>
+  </si>
+  <si>
+    <t>preco_venda</t>
+  </si>
+  <si>
+    <t>preco_cursto</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>nome completo do cliente</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>O Padrão é 1/True</t>
+  </si>
+  <si>
+    <t>FK, NOT NULL</t>
+  </si>
+  <si>
+    <t>xx.xxxx,xx</t>
+  </si>
+  <si>
+    <t>Unidade</t>
+  </si>
+  <si>
+    <t>Coluna12</t>
+  </si>
+  <si>
+    <t>abreviacao</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Ex: Kg, Und, Lt, Uni, Sc.</t>
+  </si>
+  <si>
+    <t>Nome da categoria do produto que sera exibida na tela.</t>
+  </si>
+  <si>
+    <t>Chave Primaria - Identificador Interno do registro.</t>
+  </si>
+  <si>
+    <t>Nome do cliente.</t>
+  </si>
+  <si>
+    <t>Telefone do cliente.</t>
+  </si>
+  <si>
+    <t>Identificador do operador que alt/Criou o reg. Chave externa tabela Usuario.</t>
+  </si>
+  <si>
+    <t>Nome  completo do operador do sistema.</t>
+  </si>
+  <si>
+    <t>Login  do operador do sistema - único.</t>
+  </si>
+  <si>
+    <t>Senha  do operador do sistema.</t>
+  </si>
+  <si>
+    <t>Tipo completo do operador do sistema.</t>
+  </si>
+  <si>
+    <t>Chave externa da tabela de CATEGORIA.</t>
+  </si>
+  <si>
+    <t>Chave externa da tabela de UNIDADE.</t>
+  </si>
+  <si>
+    <t>Nome completo do protudo.</t>
+  </si>
+  <si>
+    <t>Valor de venda do produto.</t>
+  </si>
+  <si>
+    <t>Custo unicatario do produto.</t>
+  </si>
+  <si>
+    <t>True = Protuto ativo para venda, False=Desativado.</t>
+  </si>
+  <si>
+    <t>Nome completo da unidade medida.</t>
+  </si>
+  <si>
+    <t>Abreviação do nome da unidade de medida.</t>
+  </si>
+  <si>
+    <t>Breve descricao da categoria</t>
+  </si>
+  <si>
+    <t>Produto_pedido</t>
+  </si>
+  <si>
+    <t>id_produto</t>
+  </si>
+  <si>
+    <t>Chave externa da tabela de PRODUTO.</t>
+  </si>
+  <si>
+    <t>Chave externa da tabela de PEDIDO.</t>
+  </si>
+  <si>
+    <t>id_pedido</t>
+  </si>
+  <si>
+    <t>quantidade</t>
+  </si>
+  <si>
+    <t>info_adicional</t>
+  </si>
+  <si>
+    <t>Quantidade solicitada do item no pedido.</t>
+  </si>
+  <si>
+    <t>Informaçao adcional ao pedido Ex: Refencia, Contato adicional etc..</t>
+  </si>
+  <si>
+    <t>Intercorrencia</t>
+  </si>
+  <si>
+    <t>id_interceorrencia</t>
+  </si>
+  <si>
+    <t>descricao</t>
+  </si>
+  <si>
+    <t>Descricao da causa/motivo da intercorrencia</t>
+  </si>
+  <si>
+    <t>Data / hora da ocorrencia.</t>
+  </si>
+  <si>
+    <t>info_pj</t>
+  </si>
+  <si>
+    <t>info_pf</t>
+  </si>
+  <si>
+    <t>cnpj</t>
+  </si>
+  <si>
+    <t>nome_fantasia</t>
+  </si>
+  <si>
+    <t>nome_empresarial</t>
+  </si>
+  <si>
+    <t>xx.xxx.xxx/xxxx-xx</t>
+  </si>
+  <si>
+    <t>Numero do CNPJ</t>
+  </si>
+  <si>
+    <t>Nome Fantasia da Pessoa Juridica</t>
+  </si>
+  <si>
+    <t>Nome Empresarial da Pessoa Juridica</t>
+  </si>
+  <si>
+    <t>nome_cliente</t>
+  </si>
+  <si>
+    <t>cpf</t>
+  </si>
+  <si>
+    <t>Nome Completo do Cliente</t>
+  </si>
+  <si>
+    <t>xxx.xxx.xxx-xx</t>
+  </si>
+  <si>
+    <t>Numero do CPF do Cliente.</t>
+  </si>
+  <si>
+    <t>est_andamento</t>
+  </si>
+  <si>
+    <t>Chave externa da tabela de USUARIO.</t>
+  </si>
+  <si>
+    <t>Nome dado a um ESTADO do pedido Ex: PRONTO, SEPARADO, ENTREGUE.</t>
+  </si>
+  <si>
+    <t>est_andamento_pedido</t>
+  </si>
+  <si>
+    <t>id_est_andamento</t>
+  </si>
+  <si>
+    <t>Id_usuario_autor</t>
+  </si>
+  <si>
+    <t>dthr_criacao</t>
+  </si>
+  <si>
+    <t>Chave externa da tabela de EST_ANDAMENTO.</t>
+  </si>
+  <si>
+    <t>Data de hora que o estado do pedido foi criado/alterado.</t>
+  </si>
+  <si>
+    <t>info_cancelamento</t>
+  </si>
+  <si>
+    <t>justificativa</t>
+  </si>
+  <si>
+    <t>Descricao do motivo do cancelamento.</t>
+  </si>
+  <si>
+    <t>destinatario</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>Descricao/Informacao do Destinatario</t>
+  </si>
+  <si>
+    <t>destino</t>
+  </si>
+  <si>
+    <t>logradoudo</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>bairro</t>
+  </si>
+  <si>
+    <t>cidade</t>
+  </si>
+  <si>
+    <t>pais</t>
+  </si>
+  <si>
+    <t>Nome do Estado de destino do pedido</t>
+  </si>
+  <si>
+    <t>Nome do Cidade de destino do pedido</t>
+  </si>
+  <si>
+    <t>Nome do Bairro de destino do pedido</t>
+  </si>
+  <si>
+    <t>Numero do local de destino do pedido</t>
+  </si>
+  <si>
+    <t>Nome da Rua/Av./BR/ES/Travessa de destino do pedido.</t>
+  </si>
+  <si>
+    <t>Nome do Pais de destino do pedido</t>
+  </si>
+  <si>
+    <t>pedido</t>
+  </si>
+  <si>
+    <t>id_cliente</t>
+  </si>
+  <si>
+    <t>id_usuario_autor</t>
+  </si>
+  <si>
+    <t>tipo_entrega</t>
+  </si>
+  <si>
+    <t>dthr_entregar</t>
+  </si>
+  <si>
+    <t>preco_frete</t>
+  </si>
+  <si>
+    <t>tx_desconto</t>
+  </si>
+  <si>
+    <t>preco_final</t>
+  </si>
+  <si>
+    <t>dt_venc_pagamento</t>
+  </si>
+  <si>
+    <t>dt_pago</t>
+  </si>
+  <si>
+    <t>preco_custo_total</t>
+  </si>
+  <si>
+    <t>Chave externa da tabela de CLIENTE.</t>
+  </si>
+  <si>
+    <t>Data/Hora criaçao do pedido.</t>
+  </si>
+  <si>
+    <t>Data/Hora em que um operador altera o pedido.</t>
+  </si>
+  <si>
+    <t>Chave externa da tabela de USUARIO. identifica o operador que alterar o pedido.</t>
+  </si>
+  <si>
+    <t>1/True = Envio    |   0/False = Retirada.</t>
+  </si>
+  <si>
+    <t>"Envio", "Retirada"</t>
+  </si>
+  <si>
+    <t>Data/Hora solicitada para entrega ou retirada.</t>
+  </si>
+  <si>
+    <t>Valor cobrado pelo transportador/frete</t>
+  </si>
+  <si>
+    <t>Valor representando a porcentagem do desconto consedido neste pedido.</t>
+  </si>
+  <si>
+    <t>Total a ser cobrado do cliente.</t>
+  </si>
+  <si>
+    <t>Data limite para aguardar o pgto do pedido.</t>
+  </si>
+  <si>
+    <t>Data/Hora em que o pgto foi confirmado neste pedido.</t>
+  </si>
+  <si>
+    <t>Informacao referente ao custo total deste pedido.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,16 +499,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -197,67 +543,26 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>375340</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>3731</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1070334</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>70788</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F768050D-851D-41E0-8016-F634630A9E8E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="375340" y="5909231"/>
-          <a:ext cx="8124494" cy="2734057"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56B3EC05-133D-4AE3-83CE-C8B167EC6831}" name="Tabela1" displayName="Tabela1" ref="A1:H31" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:H31" xr:uid="{CE0A548A-D886-460F-9BB5-D8CB0A10FC3C}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56B3EC05-133D-4AE3-83CE-C8B167EC6831}" name="Tabela1" displayName="Tabela1" ref="A1:J83" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:J83" xr:uid="{CE0A548A-D886-460F-9BB5-D8CB0A10FC3C}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="pedido"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{2918FD89-E085-4F1C-8694-D244190A7E68}" name="ENTIDADE"/>
+    <tableColumn id="9" xr3:uid="{FC3F2F5F-69CF-47B3-962A-A4C155ABA12E}" name="Coluna1"/>
     <tableColumn id="2" xr3:uid="{BA29B631-CA6A-4394-90EF-D8283E3A91D2}" name="ATRIBUTO"/>
-    <tableColumn id="3" xr3:uid="{2ED07A02-0C1F-4C87-B3B0-F0A70BE095F7}" name="CLASSE"/>
+    <tableColumn id="3" xr3:uid="{2ED07A02-0C1F-4C87-B3B0-F0A70BE095F7}" name="CLASSE" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{8E99FC83-B690-4D0C-A36F-1B2CA291E81C}" name="DOMINIO"/>
-    <tableColumn id="5" xr3:uid="{5F9FA63A-40F8-4A7F-91CF-FCED871B3A0F}" name="TAM."/>
-    <tableColumn id="8" xr3:uid="{6DDB56D1-761B-4C69-A388-FA06955C2B47}" name="Restrição" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{5F9FA63A-40F8-4A7F-91CF-FCED871B3A0F}" name="TAM." dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{6DDB56D1-761B-4C69-A388-FA06955C2B47}" name="Restrição" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{40C59DF3-7B81-4623-967B-67040CCC1E51}" name="DESCRIÇÃO"/>
     <tableColumn id="7" xr3:uid="{85BEAEAE-A320-4618-895D-E52E8CD815E8}" name="FORMATÇÃO"/>
+    <tableColumn id="11" xr3:uid="{C9C59F56-B918-4ECA-BD9F-89B2C9E5947C}" name="Coluna12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -560,360 +865,1620 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320A4E1E-EA7B-45CF-8190-892C045955BD}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="67.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="3">
         <v>80</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="3">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" t="s">
+      <c r="F6" s="3">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="3">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3">
+        <v>24</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>120</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
+      <c r="D30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3">
+        <v>45</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3">
+        <v>200</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="3">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="3">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="3">
+        <v>4</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="3">
         <v>20</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="G39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="3">
+        <v>60</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3">
+        <v>60</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="3">
+        <v>4</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
+        <v>45</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3">
+        <v>11</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3">
+        <v>16</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="3">
+        <v>4</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="3">
+        <v>14</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" t="s">
+        <v>101</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="3">
+        <v>4</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
+        <v>120</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="3">
+        <v>4</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="3">
+        <v>120</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="3">
+        <v>4</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="3">
+        <v>45</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
+        <v>45</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3">
+        <v>45</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3">
+        <v>45</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="3">
+        <v>45</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" t="s">
+        <v>135</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" t="s">
+      <c r="F70" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" t="s">
+        <v>138</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" t="s">
+        <v>141</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" t="s">
+        <v>143</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="4:7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="4:7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="4:7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>